--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStore\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711296FF-297E-4211-A0AC-CA56FE6FE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FBC82-9BF2-45B5-9871-33F826BF0695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28335" yWindow="4500" windowWidth="21540" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="12530" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexBlock" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Desert</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,11 +172,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,168 +458,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStore\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FBC82-9BF2-45B5-9871-33F826BF0695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF73D1B-15A0-4EA4-B40E-50A57DC89248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="12530" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="10620" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexBlock" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Desert</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,25 @@
   </si>
   <si>
     <t>刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可传播</t>
+  </si>
+  <si>
+    <t>可被传播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,10 +160,17 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,15 +193,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,149 +491,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="2">
         <v>8</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitStore\OasisProject3D\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF73D1B-15A0-4EA4-B40E-50A57DC89248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F469C5C0-4054-418E-B043-98F6F46DB66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="10620" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
@@ -634,10 +634,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F469C5C0-4054-418E-B043-98F6F46DB66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25492306-BB26-4B89-B4AE-3B21713ECFB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="10620" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Desert</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +131,34 @@
   </si>
   <si>
     <t>可被传播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草,石头(灰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头(褐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌,石头(黄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=,),string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,15 +182,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="3"/>
@@ -198,17 +222,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,192 +515,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>1</v>
+      <c r="H6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25492306-BB26-4B89-B4AE-3B21713ECFB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCCAE8-2FE3-4C0B-90C8-B8A3F098F020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="10620" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Luban/Config/Datas/BlockConfigTables.xlsx
+++ b/Luban/Config/Datas/BlockConfigTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepo\OasisProject3D\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCCAE8-2FE3-4C0B-90C8-B8A3F098F020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED8E0AF-F128-47CB-B3CA-21F833989AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="10620" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="10620" windowWidth="19425" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexBlock" sheetId="1" r:id="rId1"/>
@@ -517,24 +517,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,7 +561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -623,7 +623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
